--- a/data/league_data/france/19/france_std.xlsx
+++ b/data/league_data/france/19/france_std.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96740D05-CAFC-3F4C-9554-5C5A42FD963A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156E1561-8F56-334A-A71A-C14D6D70E0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -307,9 +307,6 @@
     <t>Thomas Foket</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>Damien Da Silva</t>
   </si>
   <si>
@@ -1610,12 +1607,15 @@
   </si>
   <si>
     <t>Anthony Walongwa</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2473,14 +2473,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
@@ -2507,7 +2507,7 @@
     <col min="27" max="27" width="7.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>24</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>38</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>41</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>45</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>47</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>48</v>
       </c>
@@ -4167,7 +4167,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>53</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>55</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>59</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>60</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -4914,7 +4914,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>64</v>
       </c>
@@ -5163,7 +5163,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>65</v>
       </c>
@@ -5246,7 +5246,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>67</v>
       </c>
@@ -5329,7 +5329,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>72</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>73</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>74</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>75</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>76</v>
       </c>
@@ -5993,7 +5993,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>77</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>80</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>82</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>83</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="49" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>85</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>86</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="51" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>87</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>88</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>89</v>
       </c>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>90</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="55" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>91</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="57" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>93</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>94</v>
       </c>
@@ -7321,9 +7321,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="59" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>529</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>66</v>
@@ -7404,9 +7404,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>84</v>
@@ -7487,9 +7487,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>32</v>
@@ -7570,9 +7570,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>23</v>
@@ -7653,9 +7653,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>37</v>
@@ -7736,9 +7736,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>39</v>
@@ -7819,9 +7819,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>25</v>
@@ -7902,9 +7902,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>35</v>
@@ -7985,9 +7985,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>70</v>
@@ -8068,9 +8068,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>70</v>
@@ -8151,9 +8151,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>27</v>
@@ -8234,9 +8234,9 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>44</v>
@@ -8317,9 +8317,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>84</v>
@@ -8400,9 +8400,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>66</v>
@@ -8483,9 +8483,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="73" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>30</v>
@@ -8566,9 +8566,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>56</v>
@@ -8649,9 +8649,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>66</v>
@@ -8732,12 +8732,12 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C76" s="2">
         <v>31</v>
@@ -8815,12 +8815,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C77" s="2">
         <v>34</v>
@@ -8898,9 +8898,9 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>37</v>
@@ -8981,9 +8981,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>49</v>
@@ -9064,12 +9064,12 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="C80" s="2">
         <v>30</v>
@@ -9147,9 +9147,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="81" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>66</v>
@@ -9230,9 +9230,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>70</v>
@@ -9313,9 +9313,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>84</v>
@@ -9396,9 +9396,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>35</v>
@@ -9479,9 +9479,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="85" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>39</v>
@@ -9562,9 +9562,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>51</v>
@@ -9645,9 +9645,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="87" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>23</v>
@@ -9728,9 +9728,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>44</v>
@@ -9811,9 +9811,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>25</v>
@@ -9894,9 +9894,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>21</v>
@@ -9977,12 +9977,12 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="91" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C91" s="2">
         <v>33</v>
@@ -10060,9 +10060,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>44</v>
@@ -10143,9 +10143,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>51</v>
@@ -10226,9 +10226,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>32</v>
@@ -10309,9 +10309,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>35</v>
@@ -10392,9 +10392,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>81</v>
@@ -10475,9 +10475,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="97" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>44</v>
@@ -10558,9 +10558,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>32</v>
@@ -10641,9 +10641,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="99" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>35</v>
@@ -10724,9 +10724,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>66</v>
@@ -10807,9 +10807,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="101" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>70</v>
@@ -10890,9 +10890,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>84</v>
@@ -10973,9 +10973,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="103" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>32</v>
@@ -11056,9 +11056,9 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>56</v>
@@ -11139,9 +11139,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="105" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>44</v>
@@ -11222,9 +11222,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>23</v>
@@ -11305,9 +11305,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="107" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>39</v>
@@ -11388,9 +11388,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>44</v>
@@ -11471,9 +11471,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="109" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>49</v>
@@ -11554,9 +11554,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>84</v>
@@ -11637,9 +11637,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="111" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>30</v>
@@ -11720,9 +11720,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>49</v>
@@ -11803,12 +11803,12 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="113" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C113" s="2">
         <v>30</v>
@@ -11886,9 +11886,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>51</v>
@@ -11969,9 +11969,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="115" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>84</v>
@@ -12052,12 +12052,12 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="2">
         <v>31</v>
@@ -12135,12 +12135,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="117" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C117" s="2">
         <v>33</v>
@@ -12218,9 +12218,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>54</v>
@@ -12301,9 +12301,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="119" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>56</v>
@@ -12384,9 +12384,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>44</v>
@@ -12467,9 +12467,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>51</v>
@@ -12550,12 +12550,12 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C122" s="2">
         <v>27</v>
@@ -12633,9 +12633,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="123" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>54</v>
@@ -12716,12 +12716,12 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C124" s="2">
         <v>29</v>
@@ -12799,9 +12799,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="125" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>30</v>
@@ -12882,9 +12882,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>44</v>
@@ -12965,12 +12965,12 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="127" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C127" s="2">
         <v>30</v>
@@ -13048,9 +13048,9 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>39</v>
@@ -13131,9 +13131,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="129" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>81</v>
@@ -13214,9 +13214,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>70</v>
@@ -13297,9 +13297,9 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="131" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>54</v>
@@ -13380,9 +13380,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>30</v>
@@ -13463,9 +13463,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="133" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>27</v>
@@ -13546,9 +13546,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>70</v>
@@ -13629,9 +13629,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>56</v>
@@ -13712,9 +13712,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>70</v>
@@ -13795,9 +13795,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="137" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>25</v>
@@ -13878,12 +13878,12 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="138" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C138" s="2">
         <v>29</v>
@@ -13961,9 +13961,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="139" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>81</v>
@@ -14044,12 +14044,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C140" s="2">
         <v>28</v>
@@ -14127,9 +14127,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="141" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>25</v>
@@ -14210,12 +14210,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C142" s="2">
         <v>32</v>
@@ -14293,12 +14293,12 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C143" s="2">
         <v>36</v>
@@ -14376,9 +14376,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>56</v>
@@ -14459,9 +14459,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>84</v>
@@ -14542,9 +14542,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>23</v>
@@ -14625,9 +14625,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="147" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>39</v>
@@ -14708,9 +14708,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>37</v>
@@ -14791,9 +14791,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="149" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>23</v>
@@ -14874,9 +14874,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>35</v>
@@ -14957,9 +14957,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="151" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>66</v>
@@ -15040,9 +15040,9 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>51</v>
@@ -15123,9 +15123,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="153" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>21</v>
@@ -15206,9 +15206,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>51</v>
@@ -15289,9 +15289,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="155" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>81</v>
@@ -15372,12 +15372,12 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="156" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C156" s="2">
         <v>25</v>
@@ -15455,9 +15455,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="157" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>81</v>
@@ -15538,9 +15538,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>39</v>
@@ -15621,9 +15621,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="159" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>39</v>
@@ -15704,12 +15704,12 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C160" s="2">
         <v>31</v>
@@ -15787,9 +15787,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="161" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>66</v>
@@ -15870,9 +15870,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>56</v>
@@ -15953,9 +15953,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="163" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>84</v>
@@ -16036,9 +16036,9 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>70</v>
@@ -16119,9 +16119,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="165" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>66</v>
@@ -16202,9 +16202,9 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>30</v>
@@ -16285,12 +16285,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="167" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C167" s="2">
         <v>24</v>
@@ -16368,9 +16368,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>25</v>
@@ -16451,9 +16451,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="169" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>49</v>
@@ -16534,9 +16534,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>25</v>
@@ -16617,9 +16617,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="171" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>66</v>
@@ -16700,9 +16700,9 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>32</v>
@@ -16783,9 +16783,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="173" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>21</v>
@@ -16866,9 +16866,9 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>37</v>
@@ -16949,12 +16949,12 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="175" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C175" s="2">
         <v>28</v>
@@ -17032,9 +17032,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>49</v>
@@ -17115,9 +17115,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="177" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>32</v>
@@ -17198,9 +17198,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>51</v>
@@ -17281,12 +17281,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="179" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C179" s="2">
         <v>31</v>
@@ -17364,9 +17364,9 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="180" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>32</v>
@@ -17447,9 +17447,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="181" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>23</v>
@@ -17530,9 +17530,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>49</v>
@@ -17613,12 +17613,12 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="183" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C183" s="2">
         <v>27</v>
@@ -17696,12 +17696,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="184" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C184" s="2">
         <v>21</v>
@@ -17779,9 +17779,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>51</v>
@@ -17862,9 +17862,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>25</v>
@@ -17945,12 +17945,12 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="187" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C187" s="2">
         <v>26</v>
@@ -18028,9 +18028,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>23</v>
@@ -18111,9 +18111,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="189" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>25</v>
@@ -18194,9 +18194,9 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>30</v>
@@ -18277,9 +18277,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>44</v>
@@ -18360,9 +18360,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>70</v>
@@ -18443,9 +18443,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="193" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>49</v>
@@ -18526,9 +18526,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>81</v>
@@ -18609,12 +18609,12 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="195" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C195" s="2">
         <v>25</v>
@@ -18692,9 +18692,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="196" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>51</v>
@@ -18775,9 +18775,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="197" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>25</v>
@@ -18858,9 +18858,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="198" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>81</v>
@@ -18941,9 +18941,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="199" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>21</v>
@@ -19024,9 +19024,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>25</v>
@@ -19107,9 +19107,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="201" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>70</v>
@@ -19190,9 +19190,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="202" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>30</v>
@@ -19273,9 +19273,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="203" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>35</v>
@@ -19356,9 +19356,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="204" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>84</v>
@@ -19439,9 +19439,9 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="205" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>39</v>
@@ -19522,9 +19522,9 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="206" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>23</v>
@@ -19605,9 +19605,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="207" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>81</v>
@@ -19688,9 +19688,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="208" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>56</v>
@@ -19771,9 +19771,9 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="209" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>39</v>
@@ -19854,9 +19854,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>66</v>
@@ -19937,9 +19937,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="211" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>27</v>
@@ -20020,9 +20020,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="212" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>51</v>
@@ -20103,9 +20103,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="213" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>27</v>
@@ -20186,9 +20186,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>81</v>
@@ -20269,12 +20269,12 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="215" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C215" s="2">
         <v>21</v>
@@ -20352,9 +20352,9 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="216" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>51</v>
@@ -20435,9 +20435,9 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="217" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>37</v>
@@ -20518,9 +20518,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>56</v>
@@ -20601,9 +20601,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="219" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>44</v>
@@ -20684,12 +20684,12 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="220" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C220" s="2">
         <v>23</v>
@@ -20767,9 +20767,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="221" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>49</v>
@@ -20850,12 +20850,12 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="222" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C222" s="2">
         <v>22</v>
@@ -20933,9 +20933,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="223" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>21</v>
@@ -21016,9 +21016,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="224" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>44</v>
@@ -21099,9 +21099,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="225" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>81</v>
@@ -21182,9 +21182,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="226" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>27</v>
@@ -21265,9 +21265,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="227" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>37</v>
@@ -21348,9 +21348,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="228" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>23</v>
@@ -21431,9 +21431,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="229" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>37</v>
@@ -21514,9 +21514,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="230" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>54</v>
@@ -21597,12 +21597,12 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="231" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C231" s="2">
         <v>20</v>
@@ -21680,9 +21680,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="232" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>51</v>
@@ -21763,9 +21763,9 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="233" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>39</v>
@@ -21846,12 +21846,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="234" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C234" s="2">
         <v>17</v>
@@ -21929,9 +21929,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>51</v>
@@ -22012,9 +22012,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>51</v>
@@ -22095,9 +22095,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="237" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>30</v>
@@ -22178,9 +22178,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="238" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>37</v>
@@ -22261,9 +22261,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="239" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>66</v>
@@ -22344,9 +22344,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="240" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>56</v>
@@ -22427,9 +22427,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="241" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>23</v>
@@ -22510,9 +22510,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="242" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>32</v>
@@ -22593,9 +22593,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="243" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>30</v>
@@ -22676,9 +22676,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="244" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>70</v>
@@ -22759,9 +22759,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="245" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>25</v>
@@ -22842,9 +22842,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="246" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>70</v>
@@ -22925,9 +22925,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="247" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>49</v>
@@ -23008,12 +23008,12 @@
         <v>0.31</v>
       </c>
     </row>
-    <row r="248" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C248" s="2">
         <v>17</v>
@@ -23091,9 +23091,9 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="249" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>32</v>
@@ -23174,9 +23174,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="250" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>49</v>
@@ -23257,9 +23257,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="251" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>37</v>
@@ -23340,12 +23340,12 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="252" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C252" s="2">
         <v>16</v>
@@ -23423,9 +23423,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>81</v>
@@ -23506,9 +23506,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="254" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>32</v>
@@ -23589,9 +23589,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="255" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>56</v>
@@ -23672,9 +23672,9 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="256" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>54</v>
@@ -23755,9 +23755,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="257" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>30</v>
@@ -23838,9 +23838,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="258" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>84</v>
@@ -23921,9 +23921,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="259" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>21</v>
@@ -24004,9 +24004,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="260" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>32</v>
@@ -24087,9 +24087,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="261" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>23</v>
@@ -24170,9 +24170,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="262" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>56</v>
@@ -24253,9 +24253,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="263" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>30</v>
@@ -24336,9 +24336,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="264" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>32</v>
@@ -24419,9 +24419,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="265" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>27</v>
@@ -24502,9 +24502,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="266" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>39</v>
@@ -24585,9 +24585,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="267" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>66</v>
@@ -24668,9 +24668,9 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="268" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>56</v>
@@ -24751,9 +24751,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="269" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>84</v>
@@ -24834,9 +24834,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="270" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>32</v>
@@ -24917,9 +24917,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="271" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>37</v>
@@ -25000,9 +25000,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="272" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>30</v>
@@ -25083,9 +25083,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="273" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>32</v>
@@ -25166,9 +25166,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="274" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>25</v>
@@ -25249,9 +25249,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="275" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>49</v>
@@ -25332,9 +25332,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="276" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>23</v>
@@ -25415,12 +25415,12 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="277" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C277" s="2">
         <v>16</v>
@@ -25498,9 +25498,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="278" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>84</v>
@@ -25581,9 +25581,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="279" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>49</v>
@@ -25664,9 +25664,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="280" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>23</v>
@@ -25747,9 +25747,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="281" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>56</v>
@@ -25830,9 +25830,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="282" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>32</v>
@@ -25913,9 +25913,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="283" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>84</v>
@@ -25996,9 +25996,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="284" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>84</v>
@@ -26079,9 +26079,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="285" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>27</v>
@@ -26162,9 +26162,9 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="286" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>51</v>
@@ -26245,9 +26245,9 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="287" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>81</v>
@@ -26328,9 +26328,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="288" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>37</v>
@@ -26411,9 +26411,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="289" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>23</v>
@@ -26494,9 +26494,9 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="290" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>70</v>
@@ -26577,9 +26577,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>56</v>
@@ -26660,12 +26660,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="292" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C292" s="2">
         <v>22</v>
@@ -26743,12 +26743,12 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="293" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C293" s="2">
         <v>25</v>
@@ -26826,9 +26826,9 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="294" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>81</v>
@@ -26909,9 +26909,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>30</v>
@@ -26992,9 +26992,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="296" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>23</v>
@@ -27075,9 +27075,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="297" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>25</v>
@@ -27158,9 +27158,9 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="298" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>70</v>
@@ -27241,9 +27241,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="299" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>81</v>
@@ -27324,9 +27324,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>81</v>
@@ -27407,9 +27407,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="301" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>25</v>
@@ -27490,9 +27490,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="302" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>27</v>
@@ -27573,9 +27573,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="303" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>39</v>
@@ -27656,9 +27656,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="304" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>66</v>
@@ -27739,12 +27739,12 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="305" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C305" s="2">
         <v>14</v>
@@ -27822,9 +27822,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="306" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>70</v>
@@ -27905,9 +27905,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="307" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>56</v>
@@ -27988,9 +27988,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="308" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>37</v>
@@ -28071,9 +28071,9 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="309" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>39</v>
@@ -28154,9 +28154,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="310" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>66</v>
@@ -28237,9 +28237,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="311" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>54</v>
@@ -28320,9 +28320,9 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="312" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>54</v>
@@ -28403,9 +28403,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="313" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>66</v>
@@ -28486,9 +28486,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="314" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>27</v>
@@ -28569,12 +28569,12 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="315" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C315" s="2">
         <v>19</v>
@@ -28652,9 +28652,9 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="316" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>49</v>
@@ -28735,9 +28735,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="317" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>35</v>
@@ -28818,9 +28818,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="318" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>81</v>
@@ -28901,9 +28901,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="319" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>21</v>
@@ -28984,9 +28984,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="320" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>54</v>
@@ -29067,9 +29067,9 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="321" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>37</v>
@@ -29150,9 +29150,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="322" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>37</v>
@@ -29233,12 +29233,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="323" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C323" s="2">
         <v>15</v>
@@ -29316,9 +29316,9 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="324" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>70</v>
@@ -29399,9 +29399,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="325" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>56</v>
@@ -29482,9 +29482,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>30</v>
@@ -29565,9 +29565,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="327" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>21</v>
@@ -29648,9 +29648,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="328" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>35</v>
@@ -29731,12 +29731,12 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="329" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C329" s="2">
         <v>17</v>
@@ -29814,9 +29814,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="330" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>39</v>
@@ -29897,9 +29897,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="331" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>54</v>
@@ -29980,9 +29980,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="332" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>66</v>
@@ -30063,9 +30063,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="333" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>37</v>
@@ -30146,9 +30146,9 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="334" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>54</v>
@@ -30229,9 +30229,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="335" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>49</v>
@@ -30312,9 +30312,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="336" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>70</v>
@@ -30395,9 +30395,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="337" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>49</v>
@@ -30478,9 +30478,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="338" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>54</v>
@@ -30561,9 +30561,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="339" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>54</v>
@@ -30644,9 +30644,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="340" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>21</v>
@@ -30727,12 +30727,12 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="341" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C341" s="2">
         <v>22</v>
@@ -30810,12 +30810,12 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="342" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C342" s="2">
         <v>10</v>
@@ -30893,9 +30893,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="343" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>32</v>
@@ -30976,9 +30976,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="344" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>21</v>
@@ -31059,9 +31059,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="345" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>51</v>
@@ -31142,9 +31142,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="346" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>27</v>
@@ -31225,9 +31225,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="347" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>27</v>
@@ -31308,9 +31308,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="348" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>56</v>
@@ -31391,9 +31391,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="349" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>51</v>
@@ -31474,9 +31474,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="350" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>81</v>
@@ -31557,9 +31557,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="351" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>54</v>
@@ -31640,9 +31640,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="352" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>21</v>
@@ -31723,9 +31723,9 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="353" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>51</v>
@@ -31806,9 +31806,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="354" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>81</v>
@@ -31889,9 +31889,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="355" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>30</v>
@@ -31972,9 +31972,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="356" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>30</v>
@@ -32055,9 +32055,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>70</v>
@@ -32138,9 +32138,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>56</v>
@@ -32221,9 +32221,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="359" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>51</v>
@@ -32304,9 +32304,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="360" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>56</v>
@@ -32387,9 +32387,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="361" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>49</v>
@@ -32470,9 +32470,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>84</v>
@@ -32553,9 +32553,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="363" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>44</v>
@@ -32636,12 +32636,12 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="364" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C364" s="2">
         <v>12</v>
@@ -32719,9 +32719,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="365" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>32</v>
@@ -32802,9 +32802,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="366" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>81</v>
@@ -32885,12 +32885,12 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="367" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C367" s="2">
         <v>9</v>
@@ -32968,12 +32968,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C368" s="2">
         <v>17</v>
@@ -33051,9 +33051,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="369" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>39</v>
@@ -33134,9 +33134,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="370" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>30</v>
@@ -33217,9 +33217,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="371" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>49</v>
@@ -33300,9 +33300,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="372" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>27</v>
@@ -33383,9 +33383,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="373" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>49</v>
@@ -33466,9 +33466,9 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="374" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>39</v>
@@ -33549,9 +33549,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="375" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>21</v>
@@ -33632,9 +33632,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="376" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>84</v>
@@ -33715,9 +33715,9 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="377" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>84</v>
@@ -33798,9 +33798,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>35</v>
@@ -33881,9 +33881,9 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="379" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>81</v>
@@ -33964,12 +33964,12 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="380" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C380" s="2">
         <v>14</v>
@@ -34047,9 +34047,9 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="381" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>70</v>
@@ -34130,9 +34130,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="382" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>51</v>
@@ -34213,9 +34213,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="383" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>27</v>
@@ -34296,9 +34296,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="384" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>35</v>
@@ -34379,9 +34379,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="385" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>25</v>
@@ -34462,9 +34462,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="386" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>84</v>
@@ -34545,9 +34545,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="387" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>70</v>
@@ -34628,9 +34628,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="388" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>25</v>
@@ -34711,9 +34711,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="389" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>81</v>
@@ -34794,9 +34794,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="390" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>54</v>
@@ -34877,9 +34877,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>56</v>
@@ -34960,9 +34960,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="392" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>84</v>
@@ -35043,9 +35043,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>44</v>
@@ -35126,9 +35126,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="394" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>44</v>
@@ -35209,9 +35209,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="395" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>81</v>
@@ -35292,9 +35292,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="396" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>51</v>
@@ -35375,9 +35375,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="397" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>81</v>
@@ -35458,9 +35458,9 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="398" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>49</v>
@@ -35541,9 +35541,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="399" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>21</v>
@@ -35624,9 +35624,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="400" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>81</v>
@@ -35707,9 +35707,9 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="401" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>27</v>
@@ -35790,9 +35790,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="402" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>23</v>
@@ -35873,9 +35873,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="403" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>70</v>
@@ -35956,9 +35956,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="404" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>66</v>
@@ -36039,9 +36039,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="405" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>32</v>
@@ -36122,9 +36122,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>49</v>
@@ -36205,9 +36205,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="407" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>23</v>
@@ -36288,9 +36288,9 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="408" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>54</v>
@@ -36371,9 +36371,9 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="409" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>51</v>
@@ -36454,9 +36454,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="410" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>21</v>
@@ -36537,9 +36537,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="411" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>32</v>
@@ -36620,9 +36620,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="412" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>70</v>
@@ -36703,9 +36703,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="413" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>30</v>
@@ -36786,9 +36786,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="414" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>37</v>
@@ -36869,9 +36869,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="415" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>81</v>
@@ -36952,9 +36952,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="416" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>44</v>
@@ -37035,9 +37035,9 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="417" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>84</v>
@@ -37118,9 +37118,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="418" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>30</v>
@@ -37201,9 +37201,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>66</v>
@@ -37284,9 +37284,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>21</v>
@@ -37367,12 +37367,12 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="421" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C421" s="2">
         <v>17</v>
@@ -37450,9 +37450,9 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="422" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>21</v>
@@ -37533,9 +37533,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="423" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>81</v>
@@ -37616,9 +37616,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="424" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>81</v>
@@ -37699,9 +37699,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="425" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>30</v>
@@ -37782,9 +37782,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="426" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>44</v>
@@ -37865,9 +37865,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="427" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>35</v>
@@ -37948,9 +37948,9 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="428" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>21</v>
@@ -38031,9 +38031,9 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="429" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>81</v>
@@ -38114,9 +38114,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="430" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>39</v>
@@ -38197,9 +38197,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="431" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>81</v>
@@ -38280,9 +38280,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="432" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>54</v>
@@ -38363,9 +38363,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="433" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>54</v>
@@ -38446,9 +38446,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>54</v>
@@ -38529,9 +38529,9 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="435" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>32</v>
@@ -38612,9 +38612,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>27</v>
@@ -38695,9 +38695,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="437" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>27</v>
@@ -38778,9 +38778,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="438" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>25</v>
@@ -38861,9 +38861,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="439" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>81</v>
@@ -38944,9 +38944,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="440" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>39</v>
@@ -39027,9 +39027,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="441" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>70</v>
@@ -39110,9 +39110,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="442" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>25</v>
@@ -39193,9 +39193,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="443" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>81</v>
@@ -39276,9 +39276,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>32</v>
@@ -39359,9 +39359,9 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="445" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>37</v>
@@ -39442,9 +39442,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="446" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>39</v>
@@ -39525,9 +39525,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="447" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>25</v>
@@ -39608,9 +39608,9 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="448" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>56</v>
@@ -39691,9 +39691,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="449" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>54</v>
@@ -39774,9 +39774,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="450" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>30</v>
@@ -39857,9 +39857,9 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="451" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>32</v>
@@ -39940,9 +39940,9 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="452" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>81</v>
@@ -40023,9 +40023,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="453" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>25</v>
@@ -40106,9 +40106,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="454" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>32</v>
@@ -40189,9 +40189,9 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="455" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>44</v>
@@ -40272,9 +40272,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>23</v>
@@ -40355,12 +40355,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C457" s="2">
         <v>2</v>
@@ -40438,9 +40438,9 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="458" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>51</v>
@@ -40521,12 +40521,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C459" s="2">
         <v>2</v>
@@ -40604,9 +40604,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="460" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>51</v>
@@ -40687,9 +40687,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="461" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>39</v>
@@ -40770,9 +40770,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="462" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>51</v>
@@ -40853,9 +40853,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="463" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>27</v>
@@ -40936,12 +40936,12 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="464" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C464" s="2">
         <v>3</v>
@@ -41019,9 +41019,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="465" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>21</v>
@@ -41102,9 +41102,9 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="466" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>37</v>
@@ -41185,9 +41185,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>54</v>
@@ -41268,9 +41268,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="468" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>66</v>
@@ -41351,9 +41351,9 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="469" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>84</v>
@@ -41434,9 +41434,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="470" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>35</v>
@@ -41517,9 +41517,9 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="471" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>49</v>
@@ -41600,9 +41600,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>70</v>
@@ -41683,9 +41683,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="473" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>84</v>
@@ -41766,9 +41766,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>56</v>
@@ -41849,9 +41849,9 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="475" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>56</v>
@@ -41932,9 +41932,9 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="476" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A476" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>66</v>
@@ -42015,9 +42015,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>35</v>
@@ -42098,9 +42098,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>81</v>
@@ -42181,12 +42181,12 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="479" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C479" s="2">
         <v>4</v>
@@ -42264,9 +42264,9 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="480" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>25</v>
@@ -42347,9 +42347,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="481" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>27</v>
@@ -42430,9 +42430,9 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="482" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>56</v>
@@ -42513,9 +42513,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>35</v>
@@ -42596,9 +42596,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>81</v>
@@ -42679,9 +42679,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="485" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>56</v>
@@ -42762,9 +42762,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>35</v>
@@ -42845,9 +42845,9 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="487" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>81</v>
@@ -42928,9 +42928,9 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="488" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>32</v>
@@ -43011,9 +43011,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>39</v>
@@ -43094,7 +43094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A490" s="2" t="s">
         <v>91</v>
       </c>
@@ -43177,9 +43177,9 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="491" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>51</v>
@@ -43260,9 +43260,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>56</v>
@@ -43343,9 +43343,9 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="493" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>49</v>
@@ -43426,9 +43426,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>37</v>
@@ -43509,9 +43509,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>56</v>
@@ -43592,9 +43592,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>54</v>
@@ -43675,9 +43675,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>35</v>
@@ -43758,9 +43758,9 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="498" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>32</v>
@@ -43841,9 +43841,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>32</v>
@@ -43924,9 +43924,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>56</v>

--- a/data/league_data/france/19/france_std.xlsx
+++ b/data/league_data/france/19/france_std.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{156E1561-8F56-334A-A71A-C14D6D70E0A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22E4A70-79B2-1E43-A67D-44DBF8F00910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -712,9 +712,6 @@
     <t>Fouad Chafik</t>
   </si>
   <si>
-    <t>Manu García</t>
-  </si>
-  <si>
     <t>Rony Lopes</t>
   </si>
   <si>
@@ -1069,9 +1066,6 @@
     <t>Jean-Victor Makengo</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Thiago Maia</t>
   </si>
   <si>
@@ -1610,6 +1604,12 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
+  </si>
+  <si>
+    <t>Manu García Alonso</t>
   </si>
 </sst>
 </file>
@@ -2476,8 +2476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>66</v>
@@ -18445,7 +18445,7 @@
     </row>
     <row r="193" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
-        <v>230</v>
+        <v>529</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>49</v>
@@ -18528,7 +18528,7 @@
     </row>
     <row r="194" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>81</v>
@@ -18611,7 +18611,7 @@
     </row>
     <row r="195" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>117</v>
@@ -18694,7 +18694,7 @@
     </row>
     <row r="196" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>51</v>
@@ -18777,7 +18777,7 @@
     </row>
     <row r="197" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>25</v>
@@ -18860,7 +18860,7 @@
     </row>
     <row r="198" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>81</v>
@@ -18943,7 +18943,7 @@
     </row>
     <row r="199" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>21</v>
@@ -19026,7 +19026,7 @@
     </row>
     <row r="200" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>25</v>
@@ -19109,7 +19109,7 @@
     </row>
     <row r="201" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>70</v>
@@ -19192,7 +19192,7 @@
     </row>
     <row r="202" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>30</v>
@@ -19275,7 +19275,7 @@
     </row>
     <row r="203" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>35</v>
@@ -19358,7 +19358,7 @@
     </row>
     <row r="204" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>84</v>
@@ -19441,7 +19441,7 @@
     </row>
     <row r="205" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>39</v>
@@ -19524,7 +19524,7 @@
     </row>
     <row r="206" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>23</v>
@@ -19607,7 +19607,7 @@
     </row>
     <row r="207" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>81</v>
@@ -19690,7 +19690,7 @@
     </row>
     <row r="208" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>56</v>
@@ -19773,7 +19773,7 @@
     </row>
     <row r="209" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>39</v>
@@ -19856,7 +19856,7 @@
     </row>
     <row r="210" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>66</v>
@@ -19939,7 +19939,7 @@
     </row>
     <row r="211" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>27</v>
@@ -20022,7 +20022,7 @@
     </row>
     <row r="212" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>51</v>
@@ -20105,7 +20105,7 @@
     </row>
     <row r="213" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>27</v>
@@ -20188,7 +20188,7 @@
     </row>
     <row r="214" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>81</v>
@@ -20271,7 +20271,7 @@
     </row>
     <row r="215" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>117</v>
@@ -20354,7 +20354,7 @@
     </row>
     <row r="216" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>51</v>
@@ -20437,7 +20437,7 @@
     </row>
     <row r="217" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A217" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>37</v>
@@ -20520,7 +20520,7 @@
     </row>
     <row r="218" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>56</v>
@@ -20603,7 +20603,7 @@
     </row>
     <row r="219" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>44</v>
@@ -20686,7 +20686,7 @@
     </row>
     <row r="220" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>117</v>
@@ -20769,7 +20769,7 @@
     </row>
     <row r="221" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>49</v>
@@ -20852,7 +20852,7 @@
     </row>
     <row r="222" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>117</v>
@@ -20935,7 +20935,7 @@
     </row>
     <row r="223" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>21</v>
@@ -21018,7 +21018,7 @@
     </row>
     <row r="224" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>44</v>
@@ -21101,7 +21101,7 @@
     </row>
     <row r="225" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>81</v>
@@ -21184,7 +21184,7 @@
     </row>
     <row r="226" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A226" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>27</v>
@@ -21267,7 +21267,7 @@
     </row>
     <row r="227" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A227" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>37</v>
@@ -21350,7 +21350,7 @@
     </row>
     <row r="228" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>23</v>
@@ -21433,7 +21433,7 @@
     </row>
     <row r="229" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>37</v>
@@ -21516,7 +21516,7 @@
     </row>
     <row r="230" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>54</v>
@@ -21599,7 +21599,7 @@
     </row>
     <row r="231" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>112</v>
@@ -21682,7 +21682,7 @@
     </row>
     <row r="232" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>51</v>
@@ -21765,7 +21765,7 @@
     </row>
     <row r="233" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>39</v>
@@ -21848,7 +21848,7 @@
     </row>
     <row r="234" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>117</v>
@@ -21931,7 +21931,7 @@
     </row>
     <row r="235" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>51</v>
@@ -22014,7 +22014,7 @@
     </row>
     <row r="236" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A236" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>51</v>
@@ -22097,7 +22097,7 @@
     </row>
     <row r="237" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A237" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>30</v>
@@ -22180,7 +22180,7 @@
     </row>
     <row r="238" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>37</v>
@@ -22263,7 +22263,7 @@
     </row>
     <row r="239" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>66</v>
@@ -22346,7 +22346,7 @@
     </row>
     <row r="240" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>56</v>
@@ -22429,7 +22429,7 @@
     </row>
     <row r="241" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>23</v>
@@ -22512,7 +22512,7 @@
     </row>
     <row r="242" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>32</v>
@@ -22595,7 +22595,7 @@
     </row>
     <row r="243" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>30</v>
@@ -22678,7 +22678,7 @@
     </row>
     <row r="244" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>70</v>
@@ -22761,7 +22761,7 @@
     </row>
     <row r="245" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>25</v>
@@ -22844,7 +22844,7 @@
     </row>
     <row r="246" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>70</v>
@@ -22927,7 +22927,7 @@
     </row>
     <row r="247" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A247" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>49</v>
@@ -23010,7 +23010,7 @@
     </row>
     <row r="248" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>117</v>
@@ -23093,7 +23093,7 @@
     </row>
     <row r="249" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>32</v>
@@ -23176,7 +23176,7 @@
     </row>
     <row r="250" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>49</v>
@@ -23259,7 +23259,7 @@
     </row>
     <row r="251" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>37</v>
@@ -23342,7 +23342,7 @@
     </row>
     <row r="252" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>112</v>
@@ -23425,7 +23425,7 @@
     </row>
     <row r="253" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>81</v>
@@ -23508,7 +23508,7 @@
     </row>
     <row r="254" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>32</v>
@@ -23591,7 +23591,7 @@
     </row>
     <row r="255" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>56</v>
@@ -23674,7 +23674,7 @@
     </row>
     <row r="256" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A256" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>54</v>
@@ -23757,7 +23757,7 @@
     </row>
     <row r="257" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A257" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>30</v>
@@ -23840,7 +23840,7 @@
     </row>
     <row r="258" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>84</v>
@@ -23923,7 +23923,7 @@
     </row>
     <row r="259" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>21</v>
@@ -24006,7 +24006,7 @@
     </row>
     <row r="260" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>32</v>
@@ -24089,7 +24089,7 @@
     </row>
     <row r="261" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>23</v>
@@ -24172,7 +24172,7 @@
     </row>
     <row r="262" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>56</v>
@@ -24255,7 +24255,7 @@
     </row>
     <row r="263" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>30</v>
@@ -24338,7 +24338,7 @@
     </row>
     <row r="264" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>32</v>
@@ -24421,7 +24421,7 @@
     </row>
     <row r="265" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>27</v>
@@ -24504,7 +24504,7 @@
     </row>
     <row r="266" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A266" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>39</v>
@@ -24587,7 +24587,7 @@
     </row>
     <row r="267" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A267" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>66</v>
@@ -24670,7 +24670,7 @@
     </row>
     <row r="268" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>56</v>
@@ -24753,7 +24753,7 @@
     </row>
     <row r="269" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>84</v>
@@ -24836,7 +24836,7 @@
     </row>
     <row r="270" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>32</v>
@@ -24919,7 +24919,7 @@
     </row>
     <row r="271" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>37</v>
@@ -25002,7 +25002,7 @@
     </row>
     <row r="272" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>30</v>
@@ -25085,7 +25085,7 @@
     </row>
     <row r="273" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>32</v>
@@ -25168,7 +25168,7 @@
     </row>
     <row r="274" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>25</v>
@@ -25251,7 +25251,7 @@
     </row>
     <row r="275" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>49</v>
@@ -25334,7 +25334,7 @@
     </row>
     <row r="276" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A276" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>23</v>
@@ -25417,7 +25417,7 @@
     </row>
     <row r="277" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A277" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>117</v>
@@ -25500,7 +25500,7 @@
     </row>
     <row r="278" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>84</v>
@@ -25583,7 +25583,7 @@
     </row>
     <row r="279" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>49</v>
@@ -25666,7 +25666,7 @@
     </row>
     <row r="280" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>23</v>
@@ -25749,7 +25749,7 @@
     </row>
     <row r="281" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>56</v>
@@ -25832,7 +25832,7 @@
     </row>
     <row r="282" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B282" s="2" t="s">
         <v>32</v>
@@ -25915,7 +25915,7 @@
     </row>
     <row r="283" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>84</v>
@@ -25998,7 +25998,7 @@
     </row>
     <row r="284" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>84</v>
@@ -26081,7 +26081,7 @@
     </row>
     <row r="285" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>27</v>
@@ -26164,7 +26164,7 @@
     </row>
     <row r="286" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A286" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>51</v>
@@ -26247,7 +26247,7 @@
     </row>
     <row r="287" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A287" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>81</v>
@@ -26330,7 +26330,7 @@
     </row>
     <row r="288" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>37</v>
@@ -26413,7 +26413,7 @@
     </row>
     <row r="289" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>23</v>
@@ -26496,7 +26496,7 @@
     </row>
     <row r="290" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>70</v>
@@ -26579,7 +26579,7 @@
     </row>
     <row r="291" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>56</v>
@@ -26662,7 +26662,7 @@
     </row>
     <row r="292" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>117</v>
@@ -26745,7 +26745,7 @@
     </row>
     <row r="293" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>117</v>
@@ -26828,7 +26828,7 @@
     </row>
     <row r="294" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>81</v>
@@ -26911,7 +26911,7 @@
     </row>
     <row r="295" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>30</v>
@@ -26994,7 +26994,7 @@
     </row>
     <row r="296" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>23</v>
@@ -27077,7 +27077,7 @@
     </row>
     <row r="297" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>25</v>
@@ -27160,7 +27160,7 @@
     </row>
     <row r="298" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>70</v>
@@ -27243,7 +27243,7 @@
     </row>
     <row r="299" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>81</v>
@@ -27326,7 +27326,7 @@
     </row>
     <row r="300" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>81</v>
@@ -27409,7 +27409,7 @@
     </row>
     <row r="301" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>25</v>
@@ -27492,7 +27492,7 @@
     </row>
     <row r="302" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>27</v>
@@ -27575,7 +27575,7 @@
     </row>
     <row r="303" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>39</v>
@@ -27658,7 +27658,7 @@
     </row>
     <row r="304" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>66</v>
@@ -27741,7 +27741,7 @@
     </row>
     <row r="305" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>117</v>
@@ -27824,7 +27824,7 @@
     </row>
     <row r="306" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A306" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>70</v>
@@ -27907,7 +27907,7 @@
     </row>
     <row r="307" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>56</v>
@@ -27990,7 +27990,7 @@
     </row>
     <row r="308" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>37</v>
@@ -28073,7 +28073,7 @@
     </row>
     <row r="309" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>39</v>
@@ -28156,7 +28156,7 @@
     </row>
     <row r="310" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>66</v>
@@ -28239,7 +28239,7 @@
     </row>
     <row r="311" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>54</v>
@@ -28322,7 +28322,7 @@
     </row>
     <row r="312" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>54</v>
@@ -28405,7 +28405,7 @@
     </row>
     <row r="313" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="s">
-        <v>349</v>
+        <v>528</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>66</v>
@@ -28488,7 +28488,7 @@
     </row>
     <row r="314" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>27</v>
@@ -28571,7 +28571,7 @@
     </row>
     <row r="315" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>117</v>
@@ -28654,7 +28654,7 @@
     </row>
     <row r="316" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>49</v>
@@ -28737,7 +28737,7 @@
     </row>
     <row r="317" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>35</v>
@@ -28820,7 +28820,7 @@
     </row>
     <row r="318" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>81</v>
@@ -28903,7 +28903,7 @@
     </row>
     <row r="319" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>21</v>
@@ -28986,7 +28986,7 @@
     </row>
     <row r="320" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>54</v>
@@ -29069,7 +29069,7 @@
     </row>
     <row r="321" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>37</v>
@@ -29152,7 +29152,7 @@
     </row>
     <row r="322" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>37</v>
@@ -29235,7 +29235,7 @@
     </row>
     <row r="323" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>112</v>
@@ -29318,7 +29318,7 @@
     </row>
     <row r="324" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>70</v>
@@ -29401,7 +29401,7 @@
     </row>
     <row r="325" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>56</v>
@@ -29484,7 +29484,7 @@
     </row>
     <row r="326" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A326" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>30</v>
@@ -29567,7 +29567,7 @@
     </row>
     <row r="327" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A327" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>21</v>
@@ -29650,7 +29650,7 @@
     </row>
     <row r="328" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>35</v>
@@ -29733,7 +29733,7 @@
     </row>
     <row r="329" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>117</v>
@@ -29816,7 +29816,7 @@
     </row>
     <row r="330" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>39</v>
@@ -29899,7 +29899,7 @@
     </row>
     <row r="331" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>54</v>
@@ -29982,7 +29982,7 @@
     </row>
     <row r="332" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>66</v>
@@ -30065,7 +30065,7 @@
     </row>
     <row r="333" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>37</v>
@@ -30148,7 +30148,7 @@
     </row>
     <row r="334" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>54</v>
@@ -30231,7 +30231,7 @@
     </row>
     <row r="335" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>49</v>
@@ -30314,7 +30314,7 @@
     </row>
     <row r="336" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A336" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>70</v>
@@ -30397,7 +30397,7 @@
     </row>
     <row r="337" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A337" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>49</v>
@@ -30480,7 +30480,7 @@
     </row>
     <row r="338" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>54</v>
@@ -30563,7 +30563,7 @@
     </row>
     <row r="339" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>54</v>
@@ -30646,7 +30646,7 @@
     </row>
     <row r="340" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>21</v>
@@ -30729,7 +30729,7 @@
     </row>
     <row r="341" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>117</v>
@@ -30812,7 +30812,7 @@
     </row>
     <row r="342" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>112</v>
@@ -30895,7 +30895,7 @@
     </row>
     <row r="343" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>32</v>
@@ -30978,7 +30978,7 @@
     </row>
     <row r="344" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>21</v>
@@ -31061,7 +31061,7 @@
     </row>
     <row r="345" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>51</v>
@@ -31144,7 +31144,7 @@
     </row>
     <row r="346" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>27</v>
@@ -31227,7 +31227,7 @@
     </row>
     <row r="347" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>27</v>
@@ -31310,7 +31310,7 @@
     </row>
     <row r="348" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>56</v>
@@ -31393,7 +31393,7 @@
     </row>
     <row r="349" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>51</v>
@@ -31476,7 +31476,7 @@
     </row>
     <row r="350" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>81</v>
@@ -31559,7 +31559,7 @@
     </row>
     <row r="351" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>54</v>
@@ -31642,7 +31642,7 @@
     </row>
     <row r="352" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>21</v>
@@ -31725,7 +31725,7 @@
     </row>
     <row r="353" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>51</v>
@@ -31808,7 +31808,7 @@
     </row>
     <row r="354" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>81</v>
@@ -31891,7 +31891,7 @@
     </row>
     <row r="355" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>30</v>
@@ -31974,7 +31974,7 @@
     </row>
     <row r="356" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A356" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>30</v>
@@ -32057,7 +32057,7 @@
     </row>
     <row r="357" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A357" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>70</v>
@@ -32140,7 +32140,7 @@
     </row>
     <row r="358" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>56</v>
@@ -32223,7 +32223,7 @@
     </row>
     <row r="359" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>51</v>
@@ -32306,7 +32306,7 @@
     </row>
     <row r="360" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>56</v>
@@ -32389,7 +32389,7 @@
     </row>
     <row r="361" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>49</v>
@@ -32472,7 +32472,7 @@
     </row>
     <row r="362" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>84</v>
@@ -32555,7 +32555,7 @@
     </row>
     <row r="363" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>44</v>
@@ -32638,7 +32638,7 @@
     </row>
     <row r="364" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>117</v>
@@ -32721,7 +32721,7 @@
     </row>
     <row r="365" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>32</v>
@@ -32804,7 +32804,7 @@
     </row>
     <row r="366" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A366" s="2" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>81</v>
@@ -32887,7 +32887,7 @@
     </row>
     <row r="367" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A367" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>112</v>
@@ -32970,7 +32970,7 @@
     </row>
     <row r="368" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>112</v>
@@ -33053,7 +33053,7 @@
     </row>
     <row r="369" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>39</v>
@@ -33136,7 +33136,7 @@
     </row>
     <row r="370" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>30</v>
@@ -33219,7 +33219,7 @@
     </row>
     <row r="371" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>49</v>
@@ -33302,7 +33302,7 @@
     </row>
     <row r="372" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>27</v>
@@ -33385,7 +33385,7 @@
     </row>
     <row r="373" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>49</v>
@@ -33468,7 +33468,7 @@
     </row>
     <row r="374" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>39</v>
@@ -33551,7 +33551,7 @@
     </row>
     <row r="375" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>21</v>
@@ -33634,7 +33634,7 @@
     </row>
     <row r="376" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A376" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>84</v>
@@ -33717,7 +33717,7 @@
     </row>
     <row r="377" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A377" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>84</v>
@@ -33800,7 +33800,7 @@
     </row>
     <row r="378" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>35</v>
@@ -33883,7 +33883,7 @@
     </row>
     <row r="379" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>81</v>
@@ -33966,7 +33966,7 @@
     </row>
     <row r="380" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>112</v>
@@ -34049,7 +34049,7 @@
     </row>
     <row r="381" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>70</v>
@@ -34132,7 +34132,7 @@
     </row>
     <row r="382" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>51</v>
@@ -34215,7 +34215,7 @@
     </row>
     <row r="383" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>27</v>
@@ -34298,7 +34298,7 @@
     </row>
     <row r="384" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>35</v>
@@ -34381,7 +34381,7 @@
     </row>
     <row r="385" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>25</v>
@@ -34464,7 +34464,7 @@
     </row>
     <row r="386" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>84</v>
@@ -34547,7 +34547,7 @@
     </row>
     <row r="387" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>70</v>
@@ -34630,7 +34630,7 @@
     </row>
     <row r="388" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>25</v>
@@ -34713,7 +34713,7 @@
     </row>
     <row r="389" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>81</v>
@@ -34796,7 +34796,7 @@
     </row>
     <row r="390" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>54</v>
@@ -34879,7 +34879,7 @@
     </row>
     <row r="391" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>56</v>
@@ -34962,7 +34962,7 @@
     </row>
     <row r="392" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>84</v>
@@ -35045,7 +35045,7 @@
     </row>
     <row r="393" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>44</v>
@@ -35128,7 +35128,7 @@
     </row>
     <row r="394" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>44</v>
@@ -35211,7 +35211,7 @@
     </row>
     <row r="395" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>81</v>
@@ -35294,7 +35294,7 @@
     </row>
     <row r="396" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>51</v>
@@ -35377,7 +35377,7 @@
     </row>
     <row r="397" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A397" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B397" s="2" t="s">
         <v>81</v>
@@ -35460,7 +35460,7 @@
     </row>
     <row r="398" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>49</v>
@@ -35543,7 +35543,7 @@
     </row>
     <row r="399" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>21</v>
@@ -35626,7 +35626,7 @@
     </row>
     <row r="400" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>81</v>
@@ -35709,7 +35709,7 @@
     </row>
     <row r="401" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>27</v>
@@ -35792,7 +35792,7 @@
     </row>
     <row r="402" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>23</v>
@@ -35875,7 +35875,7 @@
     </row>
     <row r="403" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>70</v>
@@ -35958,7 +35958,7 @@
     </row>
     <row r="404" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>66</v>
@@ -36041,7 +36041,7 @@
     </row>
     <row r="405" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>32</v>
@@ -36124,7 +36124,7 @@
     </row>
     <row r="406" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A406" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>49</v>
@@ -36207,7 +36207,7 @@
     </row>
     <row r="407" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A407" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>23</v>
@@ -36290,7 +36290,7 @@
     </row>
     <row r="408" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A408" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>54</v>
@@ -36373,7 +36373,7 @@
     </row>
     <row r="409" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A409" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>51</v>
@@ -36456,7 +36456,7 @@
     </row>
     <row r="410" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>21</v>
@@ -36539,7 +36539,7 @@
     </row>
     <row r="411" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>32</v>
@@ -36622,7 +36622,7 @@
     </row>
     <row r="412" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A412" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>70</v>
@@ -36705,7 +36705,7 @@
     </row>
     <row r="413" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A413" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>30</v>
@@ -36788,7 +36788,7 @@
     </row>
     <row r="414" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A414" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>37</v>
@@ -36871,7 +36871,7 @@
     </row>
     <row r="415" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A415" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>81</v>
@@ -36954,7 +36954,7 @@
     </row>
     <row r="416" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A416" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>44</v>
@@ -37037,7 +37037,7 @@
     </row>
     <row r="417" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A417" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>84</v>
@@ -37120,7 +37120,7 @@
     </row>
     <row r="418" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>30</v>
@@ -37203,7 +37203,7 @@
     </row>
     <row r="419" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>66</v>
@@ -37286,7 +37286,7 @@
     </row>
     <row r="420" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>21</v>
@@ -37369,7 +37369,7 @@
     </row>
     <row r="421" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A421" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>112</v>
@@ -37452,7 +37452,7 @@
     </row>
     <row r="422" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A422" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>21</v>
@@ -37535,7 +37535,7 @@
     </row>
     <row r="423" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A423" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>81</v>
@@ -37618,7 +37618,7 @@
     </row>
     <row r="424" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A424" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>81</v>
@@ -37701,7 +37701,7 @@
     </row>
     <row r="425" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A425" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>30</v>
@@ -37784,7 +37784,7 @@
     </row>
     <row r="426" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A426" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>44</v>
@@ -37867,7 +37867,7 @@
     </row>
     <row r="427" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>35</v>
@@ -37950,7 +37950,7 @@
     </row>
     <row r="428" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A428" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>21</v>
@@ -38033,7 +38033,7 @@
     </row>
     <row r="429" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>81</v>
@@ -38116,7 +38116,7 @@
     </row>
     <row r="430" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A430" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>39</v>
@@ -38199,7 +38199,7 @@
     </row>
     <row r="431" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A431" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>81</v>
@@ -38282,7 +38282,7 @@
     </row>
     <row r="432" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>54</v>
@@ -38365,7 +38365,7 @@
     </row>
     <row r="433" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>54</v>
@@ -38448,7 +38448,7 @@
     </row>
     <row r="434" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>54</v>
@@ -38531,7 +38531,7 @@
     </row>
     <row r="435" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>32</v>
@@ -38614,7 +38614,7 @@
     </row>
     <row r="436" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>27</v>
@@ -38697,7 +38697,7 @@
     </row>
     <row r="437" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>27</v>
@@ -38780,7 +38780,7 @@
     </row>
     <row r="438" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>25</v>
@@ -38863,7 +38863,7 @@
     </row>
     <row r="439" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>81</v>
@@ -38946,7 +38946,7 @@
     </row>
     <row r="440" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B440" s="2" t="s">
         <v>39</v>
@@ -39029,7 +39029,7 @@
     </row>
     <row r="441" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>70</v>
@@ -39112,7 +39112,7 @@
     </row>
     <row r="442" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A442" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>25</v>
@@ -39195,7 +39195,7 @@
     </row>
     <row r="443" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A443" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>81</v>
@@ -39278,7 +39278,7 @@
     </row>
     <row r="444" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A444" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>32</v>
@@ -39361,7 +39361,7 @@
     </row>
     <row r="445" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A445" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>37</v>
@@ -39444,7 +39444,7 @@
     </row>
     <row r="446" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A446" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>39</v>
@@ -39527,7 +39527,7 @@
     </row>
     <row r="447" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A447" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>25</v>
@@ -39610,7 +39610,7 @@
     </row>
     <row r="448" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A448" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>56</v>
@@ -39693,7 +39693,7 @@
     </row>
     <row r="449" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A449" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B449" s="2" t="s">
         <v>54</v>
@@ -39776,7 +39776,7 @@
     </row>
     <row r="450" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A450" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>30</v>
@@ -39859,7 +39859,7 @@
     </row>
     <row r="451" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A451" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>32</v>
@@ -39942,7 +39942,7 @@
     </row>
     <row r="452" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A452" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>81</v>
@@ -40025,7 +40025,7 @@
     </row>
     <row r="453" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A453" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>25</v>
@@ -40108,7 +40108,7 @@
     </row>
     <row r="454" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A454" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>32</v>
@@ -40191,7 +40191,7 @@
     </row>
     <row r="455" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A455" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>44</v>
@@ -40274,7 +40274,7 @@
     </row>
     <row r="456" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A456" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B456" s="2" t="s">
         <v>23</v>
@@ -40357,7 +40357,7 @@
     </row>
     <row r="457" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A457" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>117</v>
@@ -40440,7 +40440,7 @@
     </row>
     <row r="458" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A458" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>51</v>
@@ -40523,7 +40523,7 @@
     </row>
     <row r="459" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A459" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>117</v>
@@ -40606,7 +40606,7 @@
     </row>
     <row r="460" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A460" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>51</v>
@@ -40689,7 +40689,7 @@
     </row>
     <row r="461" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A461" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>39</v>
@@ -40772,7 +40772,7 @@
     </row>
     <row r="462" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A462" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>51</v>
@@ -40855,7 +40855,7 @@
     </row>
     <row r="463" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A463" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>27</v>
@@ -40938,7 +40938,7 @@
     </row>
     <row r="464" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A464" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>117</v>
@@ -41021,7 +41021,7 @@
     </row>
     <row r="465" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A465" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>21</v>
@@ -41104,7 +41104,7 @@
     </row>
     <row r="466" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A466" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B466" s="2" t="s">
         <v>37</v>
@@ -41187,7 +41187,7 @@
     </row>
     <row r="467" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A467" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B467" s="2" t="s">
         <v>54</v>
@@ -41270,7 +41270,7 @@
     </row>
     <row r="468" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A468" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B468" s="2" t="s">
         <v>66</v>
@@ -41353,7 +41353,7 @@
     </row>
     <row r="469" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A469" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B469" s="2" t="s">
         <v>84</v>
@@ -41436,7 +41436,7 @@
     </row>
     <row r="470" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A470" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B470" s="2" t="s">
         <v>35</v>
@@ -41519,7 +41519,7 @@
     </row>
     <row r="471" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A471" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B471" s="2" t="s">
         <v>49</v>
@@ -41602,7 +41602,7 @@
     </row>
     <row r="472" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A472" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B472" s="2" t="s">
         <v>70</v>
@@ -41685,7 +41685,7 @@
     </row>
     <row r="473" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A473" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B473" s="2" t="s">
         <v>84</v>
@@ -41768,7 +41768,7 @@
     </row>
     <row r="474" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A474" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B474" s="2" t="s">
         <v>56</v>
@@ -41851,7 +41851,7 @@
     </row>
     <row r="475" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A475" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B475" s="2" t="s">
         <v>56</v>
@@ -42017,7 +42017,7 @@
     </row>
     <row r="477" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A477" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B477" s="2" t="s">
         <v>35</v>
@@ -42100,7 +42100,7 @@
     </row>
     <row r="478" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B478" s="2" t="s">
         <v>81</v>
@@ -42183,7 +42183,7 @@
     </row>
     <row r="479" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>112</v>
@@ -42266,7 +42266,7 @@
     </row>
     <row r="480" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>25</v>
@@ -42349,7 +42349,7 @@
     </row>
     <row r="481" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>27</v>
@@ -42432,7 +42432,7 @@
     </row>
     <row r="482" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>56</v>
@@ -42515,7 +42515,7 @@
     </row>
     <row r="483" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A483" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B483" s="2" t="s">
         <v>35</v>
@@ -42598,7 +42598,7 @@
     </row>
     <row r="484" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>81</v>
@@ -42681,7 +42681,7 @@
     </row>
     <row r="485" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B485" s="2" t="s">
         <v>56</v>
@@ -42764,7 +42764,7 @@
     </row>
     <row r="486" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A486" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>35</v>
@@ -42847,7 +42847,7 @@
     </row>
     <row r="487" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>81</v>
@@ -42930,7 +42930,7 @@
     </row>
     <row r="488" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A488" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B488" s="2" t="s">
         <v>32</v>
@@ -43013,7 +43013,7 @@
     </row>
     <row r="489" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A489" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>39</v>
@@ -43179,7 +43179,7 @@
     </row>
     <row r="491" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A491" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>51</v>
@@ -43262,7 +43262,7 @@
     </row>
     <row r="492" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A492" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>56</v>
@@ -43345,7 +43345,7 @@
     </row>
     <row r="493" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A493" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>49</v>
@@ -43428,7 +43428,7 @@
     </row>
     <row r="494" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A494" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>37</v>
@@ -43511,7 +43511,7 @@
     </row>
     <row r="495" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A495" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>56</v>
@@ -43594,7 +43594,7 @@
     </row>
     <row r="496" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A496" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B496" s="2" t="s">
         <v>54</v>
@@ -43677,7 +43677,7 @@
     </row>
     <row r="497" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A497" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>35</v>
@@ -43760,7 +43760,7 @@
     </row>
     <row r="498" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A498" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B498" s="2" t="s">
         <v>32</v>
@@ -43843,7 +43843,7 @@
     </row>
     <row r="499" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A499" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B499" s="2" t="s">
         <v>32</v>
@@ -43926,7 +43926,7 @@
     </row>
     <row r="500" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A500" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>56</v>
